--- a/assets/email_list/CESG_mailing_list_2025_May_27.xlsx
+++ b/assets/email_list/CESG_mailing_list_2025_May_27.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1036">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -3008,9 +3008,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zitikis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel.j.lewis@ucl.ac.uk</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel</t>
@@ -3491,7 +3488,7 @@
   <dimension ref="A1:E507"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A492" activeCellId="0" sqref="A492"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.62109375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9354,15 +9351,13 @@
       </c>
       <c r="E491" s="6"/>
     </row>
-    <row r="492" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="5" t="s">
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0"/>
+      <c r="B492" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="B492" s="2" t="s">
+      <c r="C492" s="2" t="s">
         <v>997</v>
-      </c>
-      <c r="C492" s="2" t="s">
-        <v>998</v>
       </c>
       <c r="D492" s="2" t="s">
         <v>286</v>
@@ -9370,7 +9365,7 @@
     </row>
     <row r="493" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B493" s="7" t="s">
         <v>19</v>
@@ -9384,27 +9379,27 @@
     </row>
     <row r="494" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B494" s="8" t="s">
         <v>857</v>
       </c>
       <c r="C494" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D494" s="2" t="s">
         <v>1001</v>
-      </c>
-      <c r="D494" s="2" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B495" s="8" t="s">
         <v>1003</v>
       </c>
-      <c r="B495" s="8" t="s">
+      <c r="C495" s="8" t="s">
         <v>1004</v>
-      </c>
-      <c r="C495" s="8" t="s">
-        <v>1005</v>
       </c>
       <c r="D495" s="2" t="s">
         <v>87</v>
@@ -9412,10 +9407,10 @@
     </row>
     <row r="496" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B496" s="2" t="s">
         <v>1006</v>
-      </c>
-      <c r="B496" s="2" t="s">
-        <v>1007</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>147</v>
@@ -9423,24 +9418,24 @@
     </row>
     <row r="497" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B497" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C497" s="2" t="s">
         <v>1008</v>
-      </c>
-      <c r="C497" s="2" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B498" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="B498" s="2" t="s">
+      <c r="C498" s="2" t="s">
         <v>1011</v>
-      </c>
-      <c r="C498" s="2" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9448,7 +9443,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>500</v>
@@ -9459,66 +9454,66 @@
     </row>
     <row r="500" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B500" s="8" t="s">
         <v>1014</v>
       </c>
-      <c r="B500" s="8" t="s">
+      <c r="C500" s="8" t="s">
         <v>1015</v>
       </c>
-      <c r="C500" s="8" t="s">
+      <c r="D500" s="9" t="s">
         <v>1016</v>
-      </c>
-      <c r="D500" s="9" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B501" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="B501" s="2" t="s">
+      <c r="C501" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="C501" s="2" t="s">
+      <c r="D501" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="D501" s="2" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="10" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="10" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>822</v>
       </c>
       <c r="C503" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D503" s="2" t="s">
         <v>1024</v>
-      </c>
-      <c r="D503" s="2" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B504" s="11" t="s">
         <v>1026</v>
       </c>
-      <c r="B504" s="11" t="s">
+      <c r="C504" s="11" t="s">
         <v>1027</v>
-      </c>
-      <c r="C504" s="11" t="s">
-        <v>1028</v>
       </c>
       <c r="D504" s="2" t="s">
         <v>680</v>
@@ -9526,24 +9521,24 @@
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B505" s="2" t="s">
         <v>1029</v>
-      </c>
-      <c r="B505" s="2" t="s">
-        <v>1030</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>423</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B506" s="2" t="s">
         <v>1032</v>
-      </c>
-      <c r="B506" s="2" t="s">
-        <v>1033</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>237</v>
@@ -9554,13 +9549,13 @@
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B507" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="B507" s="2" t="s">
+      <c r="C507" s="2" t="s">
         <v>1035</v>
-      </c>
-      <c r="C507" s="2" t="s">
-        <v>1036</v>
       </c>
       <c r="D507" s="2" t="s">
         <v>148</v>
@@ -9568,11 +9563,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A492" r:id="rId1" display="Daniel.j.lewis@ucl.ac.uk"/>
-    <hyperlink ref="A493" r:id="rId2" display="badescu@ucalgary.ca"/>
-    <hyperlink ref="A495" r:id="rId3" display="p.gouletcoulombe@gmail.com"/>
-    <hyperlink ref="A496" r:id="rId4" display="ertianchen@gmail.com"/>
-    <hyperlink ref="A497" r:id="rId5" display="ertianchen@gmail.com"/>
+    <hyperlink ref="A493" r:id="rId1" display="badescu@ucalgary.ca"/>
+    <hyperlink ref="A495" r:id="rId2" display="p.gouletcoulombe@gmail.com"/>
+    <hyperlink ref="A496" r:id="rId3" display="ertianchen@gmail.com"/>
+    <hyperlink ref="A497" r:id="rId4" display="ertianchen@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
